--- a/grupos/missao-integrador/materiais/cronograma_geral.xlsx
+++ b/grupos/missao-integrador/materiais/cronograma_geral.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robes\Desktop\git_pre\missao-integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\teste\ecosystem\grupos\missao-integrador\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4ABBB3-A176-4444-B4E0-6C4D7B425991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -102,26 +101,35 @@
     <t>Comentários</t>
   </si>
   <si>
-    <t xml:space="preserve"> (%) Total (600%)</t>
-  </si>
-  <si>
-    <t>CRUD'S E DOCUMENTAÇÃO</t>
-  </si>
-  <si>
-    <t>AGUARDANDO FINALIZAÇÃO ROTAS, FROTAS, CHAMADOS P/ INTEGRAÇÃO</t>
-  </si>
-  <si>
-    <t>Revisão: 1.5</t>
-  </si>
-  <si>
     <t>Data:  12/02/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (%) Total (700%)</t>
+  </si>
+  <si>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>Integrador</t>
+  </si>
+  <si>
+    <t>5 SEMANAS</t>
+  </si>
+  <si>
+    <t>Pré-projeto</t>
+  </si>
+  <si>
+    <t>Revisão: 1.6</t>
+  </si>
+  <si>
+    <t>Concluído</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +160,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -192,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -401,99 +427,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -508,35 +479,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,14 +950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O4"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -919,7 +969,7 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
@@ -927,464 +977,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-    </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="40" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="40" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="53" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="23" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="47" t="s">
-        <v>23</v>
+      <c r="N6" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="O6" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="13" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="12">
         <v>1</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="12">
         <v>2</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="12">
         <v>4</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="26">
         <v>1</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="15">
+      <c r="F8" s="23"/>
+      <c r="G8" s="34">
         <v>44228</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="34">
         <v>44228</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="31">
-        <v>2.85</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>24</v>
+      <c r="I8" s="10"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="26">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="15">
+      <c r="F9" s="23"/>
+      <c r="G9" s="34">
         <v>44228</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="34">
         <v>44230</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="31">
-        <v>3.25</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1">
+      <c r="I9" s="10"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="26">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="4">
+      <c r="F10" s="23"/>
+      <c r="G10" s="54">
         <v>44256</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="54">
         <v>44246</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="31">
-        <v>4.5</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1">
+      <c r="I10" s="9"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="26">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="4">
+      <c r="F11" s="23"/>
+      <c r="G11" s="54">
         <v>44249</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="54">
         <v>44253</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="31">
-        <v>4.25</v>
-      </c>
-      <c r="O11" s="29" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="26">
+        <v>5</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="26">
+        <v>7</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="29"/>
-    </row>
-    <row r="13" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1">
+      <c r="E13" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="46">
+        <f>N8+N9+N10+N11</f>
         <v>7</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="29"/>
-    </row>
-    <row r="14" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="1">
+      <c r="O13" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="26">
         <v>8</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="29"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="27">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="30"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M17" s="32"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="20" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
+  <mergeCells count="27">
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1394,6 +1443,23 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
